--- a/PTP_Isolation/Vel_10/Standard_Deviation and Max.xlsx
+++ b/PTP_Isolation/Vel_10/Standard_Deviation and Max.xlsx
@@ -460,22 +460,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001754059062122603</v>
+        <v>0.001753054283238868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001056321054192696</v>
+        <v>0.001042925767129162</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02414584786686625</v>
+        <v>0.008212652505215173</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02059512765182459</v>
+        <v>0.01755742829292724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007395095671155635</v>
+        <v>0.007386946580121634</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05787479087262525</v>
+        <v>0.04066989668766503</v>
       </c>
     </row>
     <row r="4">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.076092725614378e-05</v>
+        <v>0.005324698759889668</v>
       </c>
       <c r="C4" t="n">
         <v>0.003810255156690756</v>

--- a/PTP_Isolation/Vel_10/Standard_Deviation and Max.xlsx
+++ b/PTP_Isolation/Vel_10/Standard_Deviation and Max.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,31 @@
         <v>0.1242534398950015</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.001736295967875623</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001875686121044729</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02330513699821474</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02382863760741438</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.009644119010622919</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.06538616969329449</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
